--- a/controle.xlsx
+++ b/controle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_workspaceDEV\sprintiDEV\src_python\github.com\controlealura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacks\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82213F65-556A-416D-958F-FB81E425F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E6B91-55F0-4A3F-B9BF-40B4518A0C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91C559EE-4048-4936-9ACA-033A729D87A2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Palmira Rizzo</t>
+  </si>
+  <si>
+    <t>Everaldo</t>
   </si>
 </sst>
 </file>
@@ -241,13 +244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65D8F9A-99A1-4D4A-A5F1-E0BF76FFC7FC}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +593,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -603,7 +605,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -614,7 +616,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -639,43 +641,44 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -683,43 +686,43 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -727,32 +730,32 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -760,10 +763,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -771,21 +774,21 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -793,10 +796,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -804,10 +807,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -815,10 +818,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -826,10 +829,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -837,21 +840,21 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -859,10 +862,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -870,21 +873,21 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -892,12 +895,23 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>1</v>
       </c>
     </row>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacks\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E6B91-55F0-4A3F-B9BF-40B4518A0C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78084CC-C212-4F42-99CA-8092D3F274E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91C559EE-4048-4936-9ACA-033A729D87A2}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacks\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78084CC-C212-4F42-99CA-8092D3F274E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D21F42-4262-4D7F-8952-311B7090F1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91C559EE-4048-4936-9ACA-033A729D87A2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Palmira Rizzo</t>
-  </si>
-  <si>
-    <t>Everaldo</t>
   </si>
 </sst>
 </file>
@@ -564,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65D8F9A-99A1-4D4A-A5F1-E0BF76FFC7FC}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +609,7 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,22 +638,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>44</v>
+      </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -664,10 +660,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -675,10 +671,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -686,10 +682,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -697,10 +693,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -708,21 +704,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -730,10 +726,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -741,10 +737,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -752,10 +748,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -763,10 +759,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -774,10 +770,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -785,10 +781,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -796,10 +792,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -807,10 +803,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -818,10 +814,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -829,10 +825,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -840,10 +836,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -851,10 +847,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -862,10 +858,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -873,10 +869,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -884,10 +880,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -895,23 +891,12 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30">
         <v>1</v>
       </c>
     </row>
